--- a/orcamento-escola.xlsx
+++ b/orcamento-escola.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADM\Documents\Desenvolvimento\Web\AW\Projeto OMC e AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76FA284-C709-4BDD-A113-2D30E8287411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE14C4-2CF1-48B0-9780-550B7549BC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>TOTAL:</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Epson Powerlite E20</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>LENOVO</t>
+  </si>
+  <si>
+    <t>Ideapad 330-81FE000QBR</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,14 +580,14 @@
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3">
         <v>1410.01</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F3" si="0">PRODUCT(D2,E2)</f>
-        <v>111390.79</v>
+        <f t="shared" ref="F2:F4" si="0">PRODUCT(D2,E2)</f>
+        <v>90240.639999999999</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>8</v>
@@ -603,25 +612,25 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>4456.6899999999996</v>
+        <v>2893.75</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>22283.449999999997</v>
+        <v>43406.25</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>8</v>
@@ -646,22 +655,29 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9">
-        <f>SUM(E2:E3)</f>
-        <v>5866.7</v>
-      </c>
-      <c r="F4" s="9">
-        <f>SUM(F2:F3)</f>
-        <v>133674.23999999999</v>
-      </c>
-      <c r="G4" s="10"/>
+    <row r="4" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4456.6899999999996</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>22283.449999999997</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -682,12 +698,50 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
+    <row r="5" spans="1:26" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9">
+        <f>SUM(E2:E4)</f>
+        <v>8760.4500000000007</v>
+      </c>
+      <c r="F5" s="9">
+        <f>SUM(F2:F4)</f>
+        <v>155930.34000000003</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{4CDC5271-6322-4E74-A12D-433506F41852}"/>
+    <hyperlink ref="G2:G3" r:id="rId4" display="Clique Aqui" xr:uid="{7AE3206B-6E15-4279-80F9-54B71C436436}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>